--- a/results/pvalue_OFFSIDES_rare_target_AUPR+AUROC.xlsx
+++ b/results/pvalue_OFFSIDES_rare_target_AUPR+AUROC.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9.951</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11.035</t>
+          <t>11.057</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.553</t>
+          <t>10.939</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.325</t>
+          <t>10.214</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.624</t>
+          <t>0.772</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
